--- a/Networks/Parte2/Excel/Parte2-Network11.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network11.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4483390611865408</v>
+        <v>0.1661381300082936</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4467261300924474</v>
+        <v>-0.5824919836740431</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.219164025132142</v>
+        <v>-1.180878465069888</v>
       </c>
       <c r="C3" t="n">
-        <v>1.161358490147382</v>
+        <v>0.2977506683355133</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04519821495121525</v>
+        <v>-0.9323718299410061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3321999007922202</v>
+        <v>1.184434700573964</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.408087234114164</v>
+        <v>-0.9819545047332432</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4840123431122599</v>
+        <v>-0.04254756219469126</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8977541288673198</v>
+        <v>-1.912779607603585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5215374018536648</v>
+        <v>-0.0743423777395877</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.163656885661793</v>
+        <v>0.954914254823618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5937778976561476</v>
+        <v>0.1005438086171189</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network11.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network11.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1661381300082936</v>
+        <v>-0.8506941505955009</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5824919836740431</v>
+        <v>-0.5449213174164297</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.180878465069888</v>
+        <v>0.6663400042645358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2977506683355133</v>
+        <v>-0.9902754239070344</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9323718299410061</v>
+        <v>1.284140086668387</v>
       </c>
       <c r="C4" t="n">
-        <v>1.184434700573964</v>
+        <v>-0.8720229218888095</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9819545047332432</v>
+        <v>-1.449479897556458</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04254756219469126</v>
+        <v>0.1271650696554648</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.912779607603585</v>
+        <v>1.223815471612321</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0743423777395877</v>
+        <v>-0.01243671900592642</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.954914254823618</v>
+        <v>-0.8800887217874873</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1005438086171189</v>
+        <v>-0.6697415577546783</v>
       </c>
     </row>
   </sheetData>
